--- a/data/pca/factorExposure/factorExposure_2012-09-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-09-26.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001336450101610782</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001886511202103428</v>
+      </c>
+      <c r="C2">
+        <v>0.02816774871855566</v>
+      </c>
+      <c r="D2">
+        <v>0.005428179843120723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0004858444619716726</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.007070578284828388</v>
+      </c>
+      <c r="C4">
+        <v>0.08313626166973283</v>
+      </c>
+      <c r="D4">
+        <v>0.0707588272484416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.002250645603989117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01465274187217655</v>
+      </c>
+      <c r="C6">
+        <v>0.1143513715259429</v>
+      </c>
+      <c r="D6">
+        <v>0.02509937615714279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0005455611193632428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005125578808418172</v>
+      </c>
+      <c r="C7">
+        <v>0.05811195046264386</v>
+      </c>
+      <c r="D7">
+        <v>0.03392446719258123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0008099436658368393</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005937205953988119</v>
+      </c>
+      <c r="C8">
+        <v>0.03568184401032742</v>
+      </c>
+      <c r="D8">
+        <v>0.03968652166508563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.001011414878394765</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005163618784090208</v>
+      </c>
+      <c r="C9">
+        <v>0.07065578666114655</v>
+      </c>
+      <c r="D9">
+        <v>0.07620330478973063</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002645628516374006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005483690771550689</v>
+      </c>
+      <c r="C10">
+        <v>0.05524198361586424</v>
+      </c>
+      <c r="D10">
+        <v>-0.1933365895349352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.001839582296724225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005714252007668566</v>
+      </c>
+      <c r="C11">
+        <v>0.07875738940258063</v>
+      </c>
+      <c r="D11">
+        <v>0.06638518769127237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0008279350988364515</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004221274767076955</v>
+      </c>
+      <c r="C12">
+        <v>0.06406376766806328</v>
+      </c>
+      <c r="D12">
+        <v>0.05282471930075241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003177626620577602</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008230188219622722</v>
+      </c>
+      <c r="C13">
+        <v>0.06728107118224522</v>
+      </c>
+      <c r="D13">
+        <v>0.06243762169792163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001848252292484143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0007331159768560993</v>
+      </c>
+      <c r="C14">
+        <v>0.04194975663404902</v>
+      </c>
+      <c r="D14">
+        <v>0.01322118001682524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0002175267767109461</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.00595943528673706</v>
+      </c>
+      <c r="C15">
+        <v>0.03988592693586278</v>
+      </c>
+      <c r="D15">
+        <v>0.03036659842021166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-3.923654959742241e-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.00511793510342856</v>
+      </c>
+      <c r="C16">
+        <v>0.06382248811239954</v>
+      </c>
+      <c r="D16">
+        <v>0.05878119107932836</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.001906571564988356</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008825014187419168</v>
+      </c>
+      <c r="C20">
+        <v>0.06285247367898539</v>
+      </c>
+      <c r="D20">
+        <v>0.05202349279109954</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.006307043241143637</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009147607491184344</v>
+      </c>
+      <c r="C21">
+        <v>0.01880469910704511</v>
+      </c>
+      <c r="D21">
+        <v>0.04370246897378879</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02007145505875883</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007197875066192301</v>
+      </c>
+      <c r="C22">
+        <v>0.08641994249867994</v>
+      </c>
+      <c r="D22">
+        <v>0.1252083940271158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01973984773994033</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006910695244662997</v>
+      </c>
+      <c r="C23">
+        <v>0.08678768270633785</v>
+      </c>
+      <c r="D23">
+        <v>0.1263522188270164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001679515925868435</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005567077207225405</v>
+      </c>
+      <c r="C24">
+        <v>0.0754249176459159</v>
+      </c>
+      <c r="D24">
+        <v>0.06926042221165658</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003382475574039565</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003158378335000103</v>
+      </c>
+      <c r="C25">
+        <v>0.07716229523585517</v>
+      </c>
+      <c r="D25">
+        <v>0.0680374140897084</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.00307608737015433</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003646866090636709</v>
+      </c>
+      <c r="C26">
+        <v>0.03839810477188695</v>
+      </c>
+      <c r="D26">
+        <v>0.0255910398451462</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006014554892693143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001350442404884945</v>
+      </c>
+      <c r="C28">
+        <v>0.1045988828916872</v>
+      </c>
+      <c r="D28">
+        <v>-0.322752125598613</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.000563940104129401</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.00263667616318871</v>
+      </c>
+      <c r="C29">
+        <v>0.04816952604123345</v>
+      </c>
+      <c r="D29">
+        <v>0.01193493048181596</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003613860962307564</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009822723618079721</v>
+      </c>
+      <c r="C30">
+        <v>0.1411987010520964</v>
+      </c>
+      <c r="D30">
+        <v>0.1096844199202512</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.002039020611053387</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.00628169006570361</v>
+      </c>
+      <c r="C31">
+        <v>0.04303216075938007</v>
+      </c>
+      <c r="D31">
+        <v>0.03365127748509414</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.00188193946632861</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003544406113101509</v>
+      </c>
+      <c r="C32">
+        <v>0.0400739908695281</v>
+      </c>
+      <c r="D32">
+        <v>0.02361514763859502</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.0007776227003308252</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.009155512730566633</v>
+      </c>
+      <c r="C33">
+        <v>0.08817694658458063</v>
+      </c>
+      <c r="D33">
+        <v>0.06643708176153629</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.002565034464195958</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004256495330243294</v>
+      </c>
+      <c r="C34">
+        <v>0.05741576651639073</v>
+      </c>
+      <c r="D34">
+        <v>0.05908884243844067</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.001361770546036234</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005369067385339101</v>
+      </c>
+      <c r="C35">
+        <v>0.03993458149002826</v>
+      </c>
+      <c r="D35">
+        <v>0.02172316328165776</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.00522835162378271</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001479974655002707</v>
+      </c>
+      <c r="C36">
+        <v>0.02377274341096854</v>
+      </c>
+      <c r="D36">
+        <v>0.02769711264609608</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.001228946298273333</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009227413682511254</v>
+      </c>
+      <c r="C38">
+        <v>0.03868598802347663</v>
+      </c>
+      <c r="D38">
+        <v>0.01436455846597891</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01121965794950237</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001264895690589919</v>
+      </c>
+      <c r="C39">
+        <v>0.1128125184160612</v>
+      </c>
+      <c r="D39">
+        <v>0.07825788801484691</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.006223180401381465</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003780681378887973</v>
+      </c>
+      <c r="C40">
+        <v>0.09073762804884095</v>
+      </c>
+      <c r="D40">
+        <v>0.01733321779057376</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0007792191646604251</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007312834596022152</v>
+      </c>
+      <c r="C41">
+        <v>0.03880198851082384</v>
+      </c>
+      <c r="D41">
+        <v>0.0403759863772398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002343473730582123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003923679628166383</v>
+      </c>
+      <c r="C43">
+        <v>0.05245691805724038</v>
+      </c>
+      <c r="D43">
+        <v>0.02883581622039337</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.01109176617285122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002529771220815435</v>
+      </c>
+      <c r="C44">
+        <v>0.1032932434678359</v>
+      </c>
+      <c r="D44">
+        <v>0.06897840103335001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0007841941897145238</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001534512460407981</v>
+      </c>
+      <c r="C46">
+        <v>0.03248665998077382</v>
+      </c>
+      <c r="D46">
+        <v>0.03579471888603046</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.000870214171156801</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002257606300506514</v>
+      </c>
+      <c r="C47">
+        <v>0.03491254051265411</v>
+      </c>
+      <c r="D47">
+        <v>0.02316676908682572</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003579634940725287</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006619780522615841</v>
+      </c>
+      <c r="C48">
+        <v>0.02966855036479116</v>
+      </c>
+      <c r="D48">
+        <v>0.0378160754305753</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.001108986629832842</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01782173718979442</v>
+      </c>
+      <c r="C49">
+        <v>0.1904877052518582</v>
+      </c>
+      <c r="D49">
+        <v>0.006070986672015077</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>4.399779686781219e-05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003612972497222939</v>
+      </c>
+      <c r="C50">
+        <v>0.04185540967087793</v>
+      </c>
+      <c r="D50">
+        <v>0.0404683868016568</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0001523342774439394</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004872885855525204</v>
+      </c>
+      <c r="C51">
+        <v>0.02620122582880431</v>
+      </c>
+      <c r="D51">
+        <v>0.02191063596655776</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.005350584791551068</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02141216416903438</v>
+      </c>
+      <c r="C53">
+        <v>0.1709668124684374</v>
+      </c>
+      <c r="D53">
+        <v>0.02208024985808605</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.00347247196080098</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009230475461912116</v>
+      </c>
+      <c r="C54">
+        <v>0.05431474407887346</v>
+      </c>
+      <c r="D54">
+        <v>0.04453016199531581</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.0009196365196981549</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009640565855130317</v>
+      </c>
+      <c r="C55">
+        <v>0.1076916297800508</v>
+      </c>
+      <c r="D55">
+        <v>0.03930085942363042</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.00689091658938223</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02057088251752798</v>
+      </c>
+      <c r="C56">
+        <v>0.1749912836653154</v>
+      </c>
+      <c r="D56">
+        <v>0.0145486321464323</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.001852199200040556</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.0192224985515926</v>
+      </c>
+      <c r="C58">
+        <v>0.1037050783889488</v>
+      </c>
+      <c r="D58">
+        <v>0.07329712458147243</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.004510716403228091</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01036182898005436</v>
+      </c>
+      <c r="C59">
+        <v>0.1693052651664926</v>
+      </c>
+      <c r="D59">
+        <v>-0.3411334962039332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.001919302761632146</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02522665431041281</v>
+      </c>
+      <c r="C60">
+        <v>0.2268212991327001</v>
+      </c>
+      <c r="D60">
+        <v>0.01648076607740553</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01019989623181582</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001785281740590715</v>
+      </c>
+      <c r="C61">
+        <v>0.09414896897975134</v>
+      </c>
+      <c r="D61">
+        <v>0.05840062804866947</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1537705056031007</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1496607105918745</v>
+      </c>
+      <c r="C62">
+        <v>0.09815846879956622</v>
+      </c>
+      <c r="D62">
+        <v>0.02221653409302896</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0007166361597676269</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.00648149226284109</v>
+      </c>
+      <c r="C63">
+        <v>0.05233101616684243</v>
+      </c>
+      <c r="D63">
+        <v>0.03538786893023645</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.004971898195870088</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01573899275383211</v>
+      </c>
+      <c r="C64">
+        <v>0.1050438925169957</v>
+      </c>
+      <c r="D64">
+        <v>0.05630659127022106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.004875360670895664</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01771908072907526</v>
+      </c>
+      <c r="C65">
+        <v>0.120684490522009</v>
+      </c>
+      <c r="D65">
+        <v>0.02942330950572299</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.002160680825746365</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01338317181253185</v>
+      </c>
+      <c r="C66">
+        <v>0.1609836366140908</v>
+      </c>
+      <c r="D66">
+        <v>0.1099779638193364</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003895791153187978</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01563027588897718</v>
+      </c>
+      <c r="C67">
+        <v>0.07106591285961616</v>
+      </c>
+      <c r="D67">
+        <v>0.02484372732988213</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.004203158461742779</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001176545276295247</v>
+      </c>
+      <c r="C68">
+        <v>0.08701708423483635</v>
+      </c>
+      <c r="D68">
+        <v>-0.2564375053892252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0006983409859849332</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006530375852461324</v>
+      </c>
+      <c r="C69">
+        <v>0.05269558000391901</v>
+      </c>
+      <c r="D69">
+        <v>0.03801006443432545</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.00132068314616235</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002295668821878303</v>
+      </c>
+      <c r="C70">
+        <v>0.007007479062522077</v>
+      </c>
+      <c r="D70">
+        <v>0.001408353750648462</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0007705742695446846</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005847263127136254</v>
+      </c>
+      <c r="C71">
+        <v>0.09153938650112656</v>
+      </c>
+      <c r="D71">
+        <v>-0.3006146828632723</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.001474254621114234</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01667257996406967</v>
+      </c>
+      <c r="C72">
+        <v>0.1568976496779381</v>
+      </c>
+      <c r="D72">
+        <v>0.01118990492850537</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.0005766569787670375</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03151424486629007</v>
+      </c>
+      <c r="C73">
+        <v>0.2827534001849161</v>
+      </c>
+      <c r="D73">
+        <v>0.05354985429370716</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005236042401577176</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002108490482577921</v>
+      </c>
+      <c r="C74">
+        <v>0.102220637473432</v>
+      </c>
+      <c r="D74">
+        <v>0.03544416386401437</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002617521619652537</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.010887060418657</v>
+      </c>
+      <c r="C75">
+        <v>0.1213943039413012</v>
+      </c>
+      <c r="D75">
+        <v>0.02566839991143169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.011534495171017</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02248092347109772</v>
+      </c>
+      <c r="C76">
+        <v>0.1468366966507125</v>
+      </c>
+      <c r="D76">
+        <v>0.05770785007038735</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.00244696797111406</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02139823146558576</v>
+      </c>
+      <c r="C77">
+        <v>0.1124433154807269</v>
+      </c>
+      <c r="D77">
+        <v>0.05481237653221741</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.003168080429141118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01478792430355027</v>
+      </c>
+      <c r="C78">
+        <v>0.09631794197942481</v>
+      </c>
+      <c r="D78">
+        <v>0.08235416178380282</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02439792589303493</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03855206660196832</v>
+      </c>
+      <c r="C79">
+        <v>0.155727713272845</v>
+      </c>
+      <c r="D79">
+        <v>0.03356967434100598</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006034664670200291</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01001462225467255</v>
+      </c>
+      <c r="C80">
+        <v>0.03848565983802946</v>
+      </c>
+      <c r="D80">
+        <v>0.02982552402141518</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.003766255308716368</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01593899212385639</v>
+      </c>
+      <c r="C81">
+        <v>0.1292432241490938</v>
+      </c>
+      <c r="D81">
+        <v>0.03810653162356568</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006364150558275943</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01987666608162935</v>
+      </c>
+      <c r="C82">
+        <v>0.1389404124905731</v>
+      </c>
+      <c r="D82">
+        <v>0.03789353345656354</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.001035639996034177</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01172675770539067</v>
+      </c>
+      <c r="C83">
+        <v>0.06282794028138645</v>
+      </c>
+      <c r="D83">
+        <v>0.04454065916488764</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01072939264187538</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.0124117251836979</v>
+      </c>
+      <c r="C84">
+        <v>0.03816841319727129</v>
+      </c>
+      <c r="D84">
+        <v>-0.003241140137885117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01651680956782929</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.0292867092447835</v>
+      </c>
+      <c r="C85">
+        <v>0.1237367196802885</v>
+      </c>
+      <c r="D85">
+        <v>0.03749896627866615</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002739469554456645</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004559223247038001</v>
+      </c>
+      <c r="C86">
+        <v>0.04982396076450642</v>
+      </c>
+      <c r="D86">
+        <v>0.02894624211981196</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.0006606620923535755</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01097185718053285</v>
+      </c>
+      <c r="C87">
+        <v>0.1273773483582983</v>
+      </c>
+      <c r="D87">
+        <v>0.07859475942170122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.009419341324473344</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002868801312987548</v>
+      </c>
+      <c r="C88">
+        <v>0.06347597473985538</v>
+      </c>
+      <c r="D88">
+        <v>0.02697539314337116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.009493764955025625</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001471621806782435</v>
+      </c>
+      <c r="C89">
+        <v>0.1394052161549401</v>
+      </c>
+      <c r="D89">
+        <v>-0.3168479078253935</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.0022458650190617</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006879379013348514</v>
+      </c>
+      <c r="C90">
+        <v>0.120755929601613</v>
+      </c>
+      <c r="D90">
+        <v>-0.3123681233153324</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0001003882171706851</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01048609171323333</v>
+      </c>
+      <c r="C91">
+        <v>0.09922304404654428</v>
+      </c>
+      <c r="D91">
+        <v>0.02486041569107366</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007416409855063854</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0006406540529124218</v>
+      </c>
+      <c r="C92">
+        <v>0.1343526844310885</v>
+      </c>
+      <c r="D92">
+        <v>-0.3229422397535414</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001214896125754885</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004248847171184548</v>
+      </c>
+      <c r="C93">
+        <v>0.1051934559642314</v>
+      </c>
+      <c r="D93">
+        <v>-0.2971822841272306</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004779795660118387</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02170475045486538</v>
+      </c>
+      <c r="C94">
+        <v>0.1425015812645362</v>
+      </c>
+      <c r="D94">
+        <v>0.05407500076627274</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.0006925882943920315</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.0165683446413402</v>
+      </c>
+      <c r="C95">
+        <v>0.120779225061306</v>
+      </c>
+      <c r="D95">
+        <v>0.06594003300192654</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.009572817255629683</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03699432861060221</v>
+      </c>
+      <c r="C97">
+        <v>0.226057956941729</v>
+      </c>
+      <c r="D97">
+        <v>0.001763691362031431</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.006670339536308464</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03809802569829956</v>
+      </c>
+      <c r="C98">
+        <v>0.2579965721832706</v>
+      </c>
+      <c r="D98">
+        <v>0.03222445903317331</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9864470916236378</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.981172309489997</v>
+      </c>
+      <c r="C99">
+        <v>-0.120643545118794</v>
+      </c>
+      <c r="D99">
+        <v>-0.02343309638011355</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0004984469463706453</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002677565159043039</v>
+      </c>
+      <c r="C101">
+        <v>0.04829826797892028</v>
+      </c>
+      <c r="D101">
+        <v>0.01231334656668005</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
